--- a/接口json数据/带合并单元格（跨列）.xlsx
+++ b/接口json数据/带合并单元格（跨列）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>2016.01.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300广州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -82,57 +94,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -192,19 +160,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -259,36 +214,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,105 +568,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B3" s="17">
         <v>100</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C3" s="8">
         <v>100</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D3" s="8">
         <v>100</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="18">
-        <v>101</v>
-      </c>
-      <c r="C3" s="3">
-        <v>102</v>
-      </c>
-      <c r="D3" s="3">
-        <v>101</v>
-      </c>
-      <c r="E3" s="4">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>2</v>
       </c>
       <c r="B4" s="18">
         <v>101</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
+        <v>102</v>
+      </c>
+      <c r="D4" s="9">
+        <v>101</v>
+      </c>
+      <c r="E4" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18">
+        <v>101</v>
+      </c>
+      <c r="C5" s="9">
         <v>100</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="9">
         <v>103</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B6" s="19">
         <v>50</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="10">
         <v>70</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="10">
         <v>119</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="7">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="5">
         <v>352</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="6">
         <v>372</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="6">
         <v>423</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="7">
         <v>1147</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="1"/>
@@ -713,9 +684,14 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
